--- a/ConceptMap-R5-CodeableReference-elements-for-R4-CodeableConcept.xlsx
+++ b/ConceptMap-R5-CodeableReference-elements-for-R4-CodeableConcept.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.6616358-06:00</t>
+    <t>2026-02-09T22:05:43.6570894-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,9 +111,6 @@
     <t>CodeableReference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept#CodeableReference</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept#CodeableConcept</t>
   </si>
   <si>
@@ -126,16 +123,10 @@
     <t>concept</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept#CodeableReference.concept</t>
-  </si>
-  <si>
     <t>CodeableReference.reference</t>
   </si>
   <si>
     <t>reference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/CodeableConcept#CodeableReference.reference</t>
   </si>
 </sst>
 </file>
@@ -392,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -458,68 +449,55 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>36</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-CodeableReference-elements-for-R4-CodeableConcept.xlsx
+++ b/ConceptMap-R5-CodeableReference-elements-for-R4-CodeableConcept.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.6570894-06:00</t>
+    <t>2026-02-17T14:42:27.080699-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
